--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyao\Documents\workspace\optimum_s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyao\Documents\workspace\OptimumS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DF32A-3D22-4555-A06E-8948A5C6776C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5457156-327B-4778-A566-BC2C2F8D7A7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>Library Type</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Starting Page</t>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Loop Name</t>
+  </si>
+  <si>
+    <t>Start Page</t>
+  </si>
+  <si>
+    <t>DPU01_Lib Demo3.txt</t>
   </si>
   <si>
     <t>#1 H7RLVL</t>
@@ -37,13 +40,10 @@
     <t>#2 H7RLVL</t>
   </si>
   <si>
+    <t>DPU01_Lib Demo2.txt</t>
+  </si>
+  <si>
     <t>#3 H7RLVL</t>
-  </si>
-  <si>
-    <t>DPU01_Lib Demo2.txt</t>
-  </si>
-  <si>
-    <t>DPU01_Lib Demo3.txt</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,21 +407,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>11</v>
